--- a/RemoteLaunch_Controller/jlcpcb pcb fab notes/JLCPCB Basic SMT Components.xlsx
+++ b/RemoteLaunch_Controller/jlcpcb pcb fab notes/JLCPCB Basic SMT Components.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2220866c56961e57/Documents/git_repos/RocketTrig/RemoteLaunch_Controller/jlcpcb pcb fab notes/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_B576824ED67DD8EF28129381E79DCDABB8D20320" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2476922B-21E6-476E-8635-EC1A447916BC}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="18135" windowHeight="6165"/>
+    <workbookView xWindow="1270" yWindow="520" windowWidth="17840" windowHeight="8460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JLCPCB Basic SMT Components" sheetId="1" r:id="rId1"/>
@@ -5701,8 +5707,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6229,13 +6235,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6273,7 +6287,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -6307,6 +6321,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -6341,9 +6356,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6516,21 +6532,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L695"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C193" sqref="C193"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="35.140625" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="35.1796875" customWidth="1"/>
+    <col min="5" max="5" width="31.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6568,7 +6584,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -6606,7 +6622,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -6644,7 +6660,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -6679,7 +6695,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -6714,7 +6730,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -6749,7 +6765,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -6784,7 +6800,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -6819,7 +6835,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -6854,7 +6870,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -6889,7 +6905,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -6924,7 +6940,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -6959,7 +6975,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -6994,7 +7010,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -7029,7 +7045,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -7064,7 +7080,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -7099,7 +7115,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -7134,7 +7150,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -7169,7 +7185,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -7204,7 +7220,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -7239,7 +7255,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -7274,7 +7290,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:12" hidden="1">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -7309,7 +7325,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:12" hidden="1">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -7344,7 +7360,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:12" hidden="1">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -7379,7 +7395,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -7414,7 +7430,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:12" hidden="1">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -7449,7 +7465,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:12" hidden="1">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -7487,7 +7503,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -7522,7 +7538,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:12" hidden="1">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -7557,7 +7573,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:12" hidden="1">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -7592,7 +7608,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:12" hidden="1">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -7627,7 +7643,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:12" hidden="1">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -7662,7 +7678,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:12" hidden="1">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -7697,7 +7713,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:12" hidden="1">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -7732,7 +7748,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:12" hidden="1">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -7767,7 +7783,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:12" hidden="1">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -7802,7 +7818,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:12" hidden="1">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -7837,7 +7853,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -7875,7 +7891,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="39" spans="1:12" hidden="1">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -7910,7 +7926,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:12" hidden="1">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -7945,7 +7961,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:12" hidden="1">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -7980,7 +7996,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -8015,7 +8031,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:12" hidden="1">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -8050,7 +8066,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:12" hidden="1">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -8085,7 +8101,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -8120,7 +8136,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:12" hidden="1">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -8155,7 +8171,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:12" hidden="1">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -8190,7 +8206,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -8225,7 +8241,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -8260,7 +8276,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>12</v>
       </c>
@@ -8295,7 +8311,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>12</v>
       </c>
@@ -8330,7 +8346,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -8365,7 +8381,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -8400,7 +8416,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -8435,7 +8451,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -8470,7 +8486,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -8505,7 +8521,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -8540,7 +8556,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -8575,7 +8591,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>12</v>
       </c>
@@ -8610,7 +8626,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -8645,7 +8661,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>12</v>
       </c>
@@ -8680,7 +8696,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>12</v>
       </c>
@@ -8715,7 +8731,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -8750,7 +8766,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>12</v>
       </c>
@@ -8785,7 +8801,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>12</v>
       </c>
@@ -8820,7 +8836,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>12</v>
       </c>
@@ -8855,7 +8871,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>12</v>
       </c>
@@ -8890,7 +8906,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>12</v>
       </c>
@@ -8925,7 +8941,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -8960,7 +8976,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -8995,7 +9011,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>12</v>
       </c>
@@ -9030,7 +9046,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:11" hidden="1">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>12</v>
       </c>
@@ -9065,7 +9081,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>12</v>
       </c>
@@ -9100,7 +9116,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>12</v>
       </c>
@@ -9135,7 +9151,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>12</v>
       </c>
@@ -9170,7 +9186,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:11" hidden="1">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>12</v>
       </c>
@@ -9205,7 +9221,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>12</v>
       </c>
@@ -9240,7 +9256,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:11" hidden="1">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>12</v>
       </c>
@@ -9275,7 +9291,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>12</v>
       </c>
@@ -9310,7 +9326,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>12</v>
       </c>
@@ -9345,7 +9361,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:11" hidden="1">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>12</v>
       </c>
@@ -9380,7 +9396,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>12</v>
       </c>
@@ -9415,7 +9431,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>12</v>
       </c>
@@ -9450,7 +9466,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>12</v>
       </c>
@@ -9485,7 +9501,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:11" hidden="1">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>12</v>
       </c>
@@ -9520,7 +9536,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>12</v>
       </c>
@@ -9555,7 +9571,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>12</v>
       </c>
@@ -9590,7 +9606,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>12</v>
       </c>
@@ -9625,7 +9641,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>12</v>
       </c>
@@ -9660,7 +9676,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>12</v>
       </c>
@@ -9695,7 +9711,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:11" hidden="1">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>12</v>
       </c>
@@ -9730,7 +9746,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:11" hidden="1">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>12</v>
       </c>
@@ -9765,7 +9781,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>12</v>
       </c>
@@ -9800,7 +9816,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>12</v>
       </c>
@@ -9835,7 +9851,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>12</v>
       </c>
@@ -9870,7 +9886,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>12</v>
       </c>
@@ -9905,7 +9921,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:12" hidden="1">
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>12</v>
       </c>
@@ -9943,7 +9959,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="98" spans="1:12" hidden="1">
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>12</v>
       </c>
@@ -9981,7 +9997,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:12" hidden="1">
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>12</v>
       </c>
@@ -10016,7 +10032,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:12" hidden="1">
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>12</v>
       </c>
@@ -10051,7 +10067,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:12" hidden="1">
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>12</v>
       </c>
@@ -10089,7 +10105,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="102" spans="1:12" hidden="1">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>12</v>
       </c>
@@ -10124,7 +10140,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:12" hidden="1">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>12</v>
       </c>
@@ -10159,7 +10175,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:12" hidden="1">
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>12</v>
       </c>
@@ -10194,7 +10210,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:12" hidden="1">
+    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>12</v>
       </c>
@@ -10229,7 +10245,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:12" hidden="1">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>12</v>
       </c>
@@ -10264,7 +10280,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:12" hidden="1">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>12</v>
       </c>
@@ -10299,7 +10315,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:12" hidden="1">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>12</v>
       </c>
@@ -10334,7 +10350,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="1:12" hidden="1">
+    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>12</v>
       </c>
@@ -10369,7 +10385,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:12" hidden="1">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>12</v>
       </c>
@@ -10404,7 +10420,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:12" hidden="1">
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>12</v>
       </c>
@@ -10439,7 +10455,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="1:12" hidden="1">
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>12</v>
       </c>
@@ -10474,7 +10490,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="1:11" hidden="1">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>12</v>
       </c>
@@ -10509,7 +10525,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="1:11" hidden="1">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>12</v>
       </c>
@@ -10544,7 +10560,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="115" spans="1:11" hidden="1">
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>12</v>
       </c>
@@ -10579,7 +10595,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:11" hidden="1">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>12</v>
       </c>
@@ -10614,7 +10630,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="1:11" hidden="1">
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>12</v>
       </c>
@@ -10649,7 +10665,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:11" hidden="1">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>12</v>
       </c>
@@ -10684,7 +10700,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:11" hidden="1">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>12</v>
       </c>
@@ -10719,7 +10735,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:11" hidden="1">
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>12</v>
       </c>
@@ -10754,7 +10770,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="1:11" hidden="1">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>12</v>
       </c>
@@ -10789,7 +10805,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="122" spans="1:11" hidden="1">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>12</v>
       </c>
@@ -10824,7 +10840,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="1:11" hidden="1">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>12</v>
       </c>
@@ -10859,7 +10875,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:11" hidden="1">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>12</v>
       </c>
@@ -10894,7 +10910,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:11" hidden="1">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>12</v>
       </c>
@@ -10929,7 +10945,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="126" spans="1:11" hidden="1">
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>12</v>
       </c>
@@ -10964,7 +10980,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="127" spans="1:11" hidden="1">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>12</v>
       </c>
@@ -10999,7 +11015,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="1:11" hidden="1">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>12</v>
       </c>
@@ -11034,7 +11050,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="129" spans="1:12" hidden="1">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>12</v>
       </c>
@@ -11069,7 +11085,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="1:12" hidden="1">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>12</v>
       </c>
@@ -11104,7 +11120,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="131" spans="1:12" hidden="1">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>12</v>
       </c>
@@ -11139,7 +11155,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:12" hidden="1">
+    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>12</v>
       </c>
@@ -11174,7 +11190,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="133" spans="1:12" hidden="1">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>12</v>
       </c>
@@ -11209,7 +11225,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="134" spans="1:12" hidden="1">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>12</v>
       </c>
@@ -11244,7 +11260,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="1:12" hidden="1">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>12</v>
       </c>
@@ -11279,7 +11295,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="136" spans="1:12" hidden="1">
+    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>12</v>
       </c>
@@ -11314,7 +11330,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:12" hidden="1">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>12</v>
       </c>
@@ -11349,7 +11365,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="1:12" hidden="1">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>12</v>
       </c>
@@ -11384,7 +11400,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="139" spans="1:12" hidden="1">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>12</v>
       </c>
@@ -11419,7 +11435,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="140" spans="1:12" hidden="1">
+    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>12</v>
       </c>
@@ -11457,7 +11473,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="141" spans="1:12" hidden="1">
+    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>12</v>
       </c>
@@ -11495,7 +11511,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="142" spans="1:12" hidden="1">
+    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>12</v>
       </c>
@@ -11530,7 +11546,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="143" spans="1:12" hidden="1">
+    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>12</v>
       </c>
@@ -11568,7 +11584,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="144" spans="1:12" hidden="1">
+    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>12</v>
       </c>
@@ -11603,7 +11619,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="145" spans="1:12" hidden="1">
+    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>12</v>
       </c>
@@ -11641,7 +11657,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="146" spans="1:12" hidden="1">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>12</v>
       </c>
@@ -11676,7 +11692,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="1:12" hidden="1">
+    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>12</v>
       </c>
@@ -11711,7 +11727,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="148" spans="1:12" hidden="1">
+    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>12</v>
       </c>
@@ -11749,7 +11765,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="149" spans="1:12" hidden="1">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>12</v>
       </c>
@@ -11784,7 +11800,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="150" spans="1:12" hidden="1">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>12</v>
       </c>
@@ -11819,7 +11835,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="1:12" hidden="1">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>12</v>
       </c>
@@ -11854,7 +11870,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="152" spans="1:12" hidden="1">
+    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>12</v>
       </c>
@@ -11892,7 +11908,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="153" spans="1:12" hidden="1">
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>12</v>
       </c>
@@ -11927,7 +11943,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="154" spans="1:12" hidden="1">
+    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>12</v>
       </c>
@@ -11962,7 +11978,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="155" spans="1:12" hidden="1">
+    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>12</v>
       </c>
@@ -12000,7 +12016,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="156" spans="1:12" hidden="1">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>12</v>
       </c>
@@ -12035,7 +12051,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="157" spans="1:12" hidden="1">
+    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>12</v>
       </c>
@@ -12070,7 +12086,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="158" spans="1:12" hidden="1">
+    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>12</v>
       </c>
@@ -12105,7 +12121,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="1:12" hidden="1">
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>12</v>
       </c>
@@ -12140,7 +12156,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="160" spans="1:12" hidden="1">
+    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>12</v>
       </c>
@@ -12175,7 +12191,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="1:11" hidden="1">
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>12</v>
       </c>
@@ -12210,7 +12226,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="162" spans="1:11" hidden="1">
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>12</v>
       </c>
@@ -12245,7 +12261,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="163" spans="1:11" hidden="1">
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>12</v>
       </c>
@@ -12280,7 +12296,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="164" spans="1:11" hidden="1">
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>12</v>
       </c>
@@ -12315,7 +12331,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="165" spans="1:11" hidden="1">
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>12</v>
       </c>
@@ -12350,7 +12366,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="166" spans="1:11" hidden="1">
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>12</v>
       </c>
@@ -12385,7 +12401,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="167" spans="1:11" hidden="1">
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>12</v>
       </c>
@@ -12420,7 +12436,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="168" spans="1:11" hidden="1">
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>12</v>
       </c>
@@ -12455,7 +12471,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:11" hidden="1">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>12</v>
       </c>
@@ -12490,7 +12506,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="170" spans="1:11" hidden="1">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>12</v>
       </c>
@@ -12525,7 +12541,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:11" hidden="1">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>12</v>
       </c>
@@ -12560,7 +12576,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="172" spans="1:11" hidden="1">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>12</v>
       </c>
@@ -12595,7 +12611,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:11" hidden="1">
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>12</v>
       </c>
@@ -12630,7 +12646,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="174" spans="1:11" hidden="1">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>12</v>
       </c>
@@ -12665,7 +12681,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="175" spans="1:11" hidden="1">
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>12</v>
       </c>
@@ -12700,7 +12716,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="176" spans="1:11" hidden="1">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>12</v>
       </c>
@@ -12735,7 +12751,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="177" spans="1:11" hidden="1">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>12</v>
       </c>
@@ -12770,7 +12786,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="178" spans="1:11" hidden="1">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>12</v>
       </c>
@@ -12805,7 +12821,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="179" spans="1:11" hidden="1">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>12</v>
       </c>
@@ -12840,7 +12856,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="180" spans="1:11" hidden="1">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>12</v>
       </c>
@@ -12875,7 +12891,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="181" spans="1:11" hidden="1">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>12</v>
       </c>
@@ -12910,7 +12926,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="182" spans="1:11" hidden="1">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>12</v>
       </c>
@@ -12945,7 +12961,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="183" spans="1:11" hidden="1">
+    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>12</v>
       </c>
@@ -12980,7 +12996,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="184" spans="1:11" hidden="1">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>12</v>
       </c>
@@ -13015,7 +13031,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>12</v>
       </c>
@@ -13050,7 +13066,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="186" spans="1:11" hidden="1">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>12</v>
       </c>
@@ -13085,7 +13101,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="187" spans="1:11" hidden="1">
+    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>12</v>
       </c>
@@ -13120,7 +13136,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="188" spans="1:11" hidden="1">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>12</v>
       </c>
@@ -13155,7 +13171,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="189" spans="1:11" hidden="1">
+    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>12</v>
       </c>
@@ -13190,7 +13206,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="190" spans="1:11" hidden="1">
+    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>12</v>
       </c>
@@ -13225,7 +13241,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="191" spans="1:11" hidden="1">
+    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>12</v>
       </c>
@@ -13260,7 +13276,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="192" spans="1:11" hidden="1">
+    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>12</v>
       </c>
@@ -13295,7 +13311,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="193" spans="1:12">
+    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>12</v>
       </c>
@@ -13330,7 +13346,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="194" spans="1:12" hidden="1">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>12</v>
       </c>
@@ -13365,7 +13381,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="195" spans="1:12" hidden="1">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>12</v>
       </c>
@@ -13400,7 +13416,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="196" spans="1:12" hidden="1">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>12</v>
       </c>
@@ -13435,7 +13451,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="197" spans="1:12" hidden="1">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>12</v>
       </c>
@@ -13470,7 +13486,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="198" spans="1:12" hidden="1">
+    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>12</v>
       </c>
@@ -13505,7 +13521,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="199" spans="1:12" hidden="1">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>12</v>
       </c>
@@ -13540,7 +13556,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="200" spans="1:12" hidden="1">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>12</v>
       </c>
@@ -13575,7 +13591,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="201" spans="1:12" hidden="1">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>12</v>
       </c>
@@ -13610,7 +13626,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="202" spans="1:12" hidden="1">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>12</v>
       </c>
@@ -13645,7 +13661,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="203" spans="1:12" hidden="1">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>12</v>
       </c>
@@ -13680,7 +13696,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="204" spans="1:12" hidden="1">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>12</v>
       </c>
@@ -13715,7 +13731,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="205" spans="1:12">
+    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>12</v>
       </c>
@@ -13750,7 +13766,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="206" spans="1:12" hidden="1">
+    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>12</v>
       </c>
@@ -13785,7 +13801,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="207" spans="1:12" hidden="1">
+    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>12</v>
       </c>
@@ -13823,7 +13839,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="208" spans="1:12" hidden="1">
+    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>12</v>
       </c>
@@ -13858,7 +13874,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="209" spans="1:11" hidden="1">
+    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>12</v>
       </c>
@@ -13893,7 +13909,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="210" spans="1:11" hidden="1">
+    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>12</v>
       </c>
@@ -13928,7 +13944,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="211" spans="1:11" hidden="1">
+    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>12</v>
       </c>
@@ -13963,7 +13979,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="212" spans="1:11" hidden="1">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>12</v>
       </c>
@@ -13998,7 +14014,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="213" spans="1:11" hidden="1">
+    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>12</v>
       </c>
@@ -14033,7 +14049,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="214" spans="1:11" hidden="1">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>12</v>
       </c>
@@ -14068,7 +14084,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="215" spans="1:11" hidden="1">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>12</v>
       </c>
@@ -14103,7 +14119,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="216" spans="1:11" hidden="1">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>12</v>
       </c>
@@ -14138,7 +14154,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="217" spans="1:11" hidden="1">
+    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>12</v>
       </c>
@@ -14173,7 +14189,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="218" spans="1:11" hidden="1">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>12</v>
       </c>
@@ -14208,7 +14224,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="219" spans="1:11" hidden="1">
+    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>12</v>
       </c>
@@ -14243,7 +14259,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="220" spans="1:11" hidden="1">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>12</v>
       </c>
@@ -14278,7 +14294,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="221" spans="1:11" hidden="1">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>12</v>
       </c>
@@ -14313,7 +14329,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="222" spans="1:11" hidden="1">
+    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>12</v>
       </c>
@@ -14348,7 +14364,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="223" spans="1:11" hidden="1">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>12</v>
       </c>
@@ -14383,7 +14399,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="224" spans="1:11" hidden="1">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>12</v>
       </c>
@@ -14418,7 +14434,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="225" spans="1:12" hidden="1">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>12</v>
       </c>
@@ -14453,7 +14469,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="226" spans="1:12" hidden="1">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>12</v>
       </c>
@@ -14488,7 +14504,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="227" spans="1:12" hidden="1">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>12</v>
       </c>
@@ -14523,7 +14539,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="228" spans="1:12" hidden="1">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>12</v>
       </c>
@@ -14558,7 +14574,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="229" spans="1:12" hidden="1">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>12</v>
       </c>
@@ -14593,7 +14609,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="230" spans="1:12" hidden="1">
+    <row r="230" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>12</v>
       </c>
@@ -14631,7 +14647,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="231" spans="1:12" hidden="1">
+    <row r="231" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>12</v>
       </c>
@@ -14669,7 +14685,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="232" spans="1:12" hidden="1">
+    <row r="232" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>12</v>
       </c>
@@ -14704,7 +14720,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="233" spans="1:12" hidden="1">
+    <row r="233" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>12</v>
       </c>
@@ -14739,7 +14755,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="234" spans="1:12" hidden="1">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>12</v>
       </c>
@@ -14774,7 +14790,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="235" spans="1:12" hidden="1">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>12</v>
       </c>
@@ -14809,7 +14825,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="236" spans="1:12" hidden="1">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>12</v>
       </c>
@@ -14844,7 +14860,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="237" spans="1:12" hidden="1">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>12</v>
       </c>
@@ -14879,7 +14895,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="238" spans="1:12" hidden="1">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>12</v>
       </c>
@@ -14914,7 +14930,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="239" spans="1:12" hidden="1">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>12</v>
       </c>
@@ -14949,7 +14965,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="240" spans="1:12" hidden="1">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>12</v>
       </c>
@@ -14984,7 +15000,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="241" spans="1:11" hidden="1">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>12</v>
       </c>
@@ -15019,7 +15035,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="242" spans="1:11" hidden="1">
+    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>12</v>
       </c>
@@ -15054,7 +15070,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="243" spans="1:11" hidden="1">
+    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>12</v>
       </c>
@@ -15089,7 +15105,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="244" spans="1:11" hidden="1">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>12</v>
       </c>
@@ -15124,7 +15140,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="245" spans="1:11" hidden="1">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>12</v>
       </c>
@@ -15159,7 +15175,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="246" spans="1:11" hidden="1">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>12</v>
       </c>
@@ -15194,7 +15210,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="247" spans="1:11" hidden="1">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>12</v>
       </c>
@@ -15229,7 +15245,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="248" spans="1:11" hidden="1">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>12</v>
       </c>
@@ -15264,7 +15280,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="249" spans="1:11" hidden="1">
+    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>12</v>
       </c>
@@ -15299,7 +15315,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="250" spans="1:11" hidden="1">
+    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>12</v>
       </c>
@@ -15334,7 +15350,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="251" spans="1:11" hidden="1">
+    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>12</v>
       </c>
@@ -15369,7 +15385,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="252" spans="1:11" hidden="1">
+    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>12</v>
       </c>
@@ -15404,7 +15420,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="253" spans="1:11" hidden="1">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>12</v>
       </c>
@@ -15439,7 +15455,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="254" spans="1:11" hidden="1">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>12</v>
       </c>
@@ -15474,7 +15490,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="255" spans="1:11" hidden="1">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>12</v>
       </c>
@@ -15509,7 +15525,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="256" spans="1:11" hidden="1">
+    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>12</v>
       </c>
@@ -15544,7 +15560,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="257" spans="1:12" hidden="1">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>12</v>
       </c>
@@ -15579,7 +15595,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="258" spans="1:12" hidden="1">
+    <row r="258" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>12</v>
       </c>
@@ -15614,7 +15630,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="259" spans="1:12" hidden="1">
+    <row r="259" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>12</v>
       </c>
@@ -15649,7 +15665,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="260" spans="1:12" hidden="1">
+    <row r="260" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>12</v>
       </c>
@@ -15684,7 +15700,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="261" spans="1:12" hidden="1">
+    <row r="261" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>12</v>
       </c>
@@ -15719,7 +15735,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="262" spans="1:12" hidden="1">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>12</v>
       </c>
@@ -15754,7 +15770,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="263" spans="1:12" hidden="1">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>12</v>
       </c>
@@ -15789,7 +15805,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="264" spans="1:12" hidden="1">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>12</v>
       </c>
@@ -15824,7 +15840,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="265" spans="1:12" hidden="1">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>12</v>
       </c>
@@ -15859,7 +15875,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="266" spans="1:12" hidden="1">
+    <row r="266" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>12</v>
       </c>
@@ -15897,7 +15913,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="267" spans="1:12" hidden="1">
+    <row r="267" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>12</v>
       </c>
@@ -15935,7 +15951,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="268" spans="1:12" hidden="1">
+    <row r="268" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>12</v>
       </c>
@@ -15973,7 +15989,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="269" spans="1:12" hidden="1">
+    <row r="269" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>12</v>
       </c>
@@ -16008,7 +16024,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="270" spans="1:12" hidden="1">
+    <row r="270" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>12</v>
       </c>
@@ -16043,7 +16059,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="271" spans="1:12" hidden="1">
+    <row r="271" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>12</v>
       </c>
@@ -16081,7 +16097,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="272" spans="1:12" hidden="1">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>12</v>
       </c>
@@ -16116,7 +16132,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="273" spans="1:11" hidden="1">
+    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>12</v>
       </c>
@@ -16151,7 +16167,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="274" spans="1:11" hidden="1">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>12</v>
       </c>
@@ -16186,7 +16202,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="275" spans="1:11" hidden="1">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>12</v>
       </c>
@@ -16221,7 +16237,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="276" spans="1:11" hidden="1">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>12</v>
       </c>
@@ -16256,7 +16272,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="277" spans="1:11" hidden="1">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>12</v>
       </c>
@@ -16291,7 +16307,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="278" spans="1:11" hidden="1">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>12</v>
       </c>
@@ -16326,7 +16342,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="279" spans="1:11" hidden="1">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>12</v>
       </c>
@@ -16361,7 +16377,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="280" spans="1:11" hidden="1">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>12</v>
       </c>
@@ -16396,7 +16412,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="281" spans="1:11" hidden="1">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>12</v>
       </c>
@@ -16431,7 +16447,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="282" spans="1:11" hidden="1">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>12</v>
       </c>
@@ -16466,7 +16482,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="283" spans="1:11" hidden="1">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>12</v>
       </c>
@@ -16501,7 +16517,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="284" spans="1:11" hidden="1">
+    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>12</v>
       </c>
@@ -16536,7 +16552,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="285" spans="1:11" hidden="1">
+    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>12</v>
       </c>
@@ -16571,7 +16587,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="286" spans="1:11" hidden="1">
+    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>12</v>
       </c>
@@ -16606,7 +16622,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="287" spans="1:11" hidden="1">
+    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>12</v>
       </c>
@@ -16641,7 +16657,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="288" spans="1:11" hidden="1">
+    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>12</v>
       </c>
@@ -16676,7 +16692,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="289" spans="1:12" hidden="1">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>12</v>
       </c>
@@ -16711,7 +16727,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="290" spans="1:12" hidden="1">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>12</v>
       </c>
@@ -16746,7 +16762,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="291" spans="1:12" hidden="1">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>12</v>
       </c>
@@ -16781,7 +16797,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="292" spans="1:12" hidden="1">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>12</v>
       </c>
@@ -16816,7 +16832,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="293" spans="1:12" hidden="1">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>12</v>
       </c>
@@ -16851,7 +16867,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="294" spans="1:12" hidden="1">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>12</v>
       </c>
@@ -16886,7 +16902,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="295" spans="1:12" hidden="1">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>12</v>
       </c>
@@ -16921,7 +16937,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="296" spans="1:12" hidden="1">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>12</v>
       </c>
@@ -16956,7 +16972,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="297" spans="1:12" hidden="1">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>12</v>
       </c>
@@ -16991,7 +17007,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="298" spans="1:12" hidden="1">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>12</v>
       </c>
@@ -17026,7 +17042,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="299" spans="1:12" hidden="1">
+    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>12</v>
       </c>
@@ -17064,7 +17080,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="300" spans="1:12" hidden="1">
+    <row r="300" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>12</v>
       </c>
@@ -17099,7 +17115,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="301" spans="1:12" hidden="1">
+    <row r="301" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>12</v>
       </c>
@@ -17134,7 +17150,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="302" spans="1:12" hidden="1">
+    <row r="302" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>12</v>
       </c>
@@ -17169,7 +17185,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="303" spans="1:12" hidden="1">
+    <row r="303" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>12</v>
       </c>
@@ -17204,7 +17220,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="304" spans="1:12" hidden="1">
+    <row r="304" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>12</v>
       </c>
@@ -17239,7 +17255,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="305" spans="1:11" hidden="1">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>12</v>
       </c>
@@ -17274,7 +17290,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="306" spans="1:11" hidden="1">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>12</v>
       </c>
@@ -17309,7 +17325,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="307" spans="1:11" hidden="1">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>12</v>
       </c>
@@ -17344,7 +17360,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="308" spans="1:11" hidden="1">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>12</v>
       </c>
@@ -17379,7 +17395,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="309" spans="1:11" hidden="1">
+    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>12</v>
       </c>
@@ -17414,7 +17430,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="310" spans="1:11" hidden="1">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>12</v>
       </c>
@@ -17449,7 +17465,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="311" spans="1:11" hidden="1">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>12</v>
       </c>
@@ -17484,7 +17500,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="312" spans="1:11" hidden="1">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>12</v>
       </c>
@@ -17519,7 +17535,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="313" spans="1:11" hidden="1">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>12</v>
       </c>
@@ -17554,7 +17570,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="314" spans="1:11" hidden="1">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>12</v>
       </c>
@@ -17589,7 +17605,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="315" spans="1:11" hidden="1">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>12</v>
       </c>
@@ -17624,7 +17640,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="316" spans="1:11" hidden="1">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>12</v>
       </c>
@@ -17659,7 +17675,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="317" spans="1:11" hidden="1">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>12</v>
       </c>
@@ -17694,7 +17710,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="318" spans="1:11" hidden="1">
+    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>12</v>
       </c>
@@ -17729,7 +17745,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="319" spans="1:11" hidden="1">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>12</v>
       </c>
@@ -17764,7 +17780,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="320" spans="1:11" hidden="1">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>12</v>
       </c>
@@ -17799,7 +17815,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="321" spans="1:12" hidden="1">
+    <row r="321" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>12</v>
       </c>
@@ -17834,7 +17850,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="322" spans="1:12" hidden="1">
+    <row r="322" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>12</v>
       </c>
@@ -17869,7 +17885,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="323" spans="1:12" hidden="1">
+    <row r="323" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>12</v>
       </c>
@@ -17904,7 +17920,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="324" spans="1:12" hidden="1">
+    <row r="324" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>12</v>
       </c>
@@ -17939,7 +17955,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="325" spans="1:12" hidden="1">
+    <row r="325" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>12</v>
       </c>
@@ -17974,7 +17990,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="326" spans="1:12" hidden="1">
+    <row r="326" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>12</v>
       </c>
@@ -18009,7 +18025,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="327" spans="1:12" hidden="1">
+    <row r="327" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>12</v>
       </c>
@@ -18044,7 +18060,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="328" spans="1:12" hidden="1">
+    <row r="328" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>12</v>
       </c>
@@ -18079,7 +18095,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="329" spans="1:12" hidden="1">
+    <row r="329" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>12</v>
       </c>
@@ -18114,7 +18130,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="330" spans="1:12" hidden="1">
+    <row r="330" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>12</v>
       </c>
@@ -18152,7 +18168,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="331" spans="1:12" hidden="1">
+    <row r="331" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>12</v>
       </c>
@@ -18187,7 +18203,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="332" spans="1:12" hidden="1">
+    <row r="332" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>12</v>
       </c>
@@ -18222,7 +18238,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="333" spans="1:12" hidden="1">
+    <row r="333" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>12</v>
       </c>
@@ -18257,7 +18273,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="334" spans="1:12" hidden="1">
+    <row r="334" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>12</v>
       </c>
@@ -18292,7 +18308,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="335" spans="1:12" hidden="1">
+    <row r="335" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>12</v>
       </c>
@@ -18327,7 +18343,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="336" spans="1:12" hidden="1">
+    <row r="336" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>12</v>
       </c>
@@ -18362,7 +18378,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="337" spans="1:12" hidden="1">
+    <row r="337" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>12</v>
       </c>
@@ -18397,7 +18413,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="338" spans="1:12" hidden="1">
+    <row r="338" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>12</v>
       </c>
@@ -18432,7 +18448,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="339" spans="1:12" hidden="1">
+    <row r="339" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>12</v>
       </c>
@@ -18467,7 +18483,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="340" spans="1:12" hidden="1">
+    <row r="340" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>12</v>
       </c>
@@ -18502,7 +18518,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="341" spans="1:12" hidden="1">
+    <row r="341" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>12</v>
       </c>
@@ -18537,7 +18553,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="342" spans="1:12" hidden="1">
+    <row r="342" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>12</v>
       </c>
@@ -18572,7 +18588,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="343" spans="1:12" hidden="1">
+    <row r="343" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>12</v>
       </c>
@@ -18607,7 +18623,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="344" spans="1:12" hidden="1">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>12</v>
       </c>
@@ -18642,7 +18658,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="345" spans="1:12" hidden="1">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>12</v>
       </c>
@@ -18677,7 +18693,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="346" spans="1:12" hidden="1">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>12</v>
       </c>
@@ -18712,7 +18728,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="347" spans="1:12" hidden="1">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>12</v>
       </c>
@@ -18747,7 +18763,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="348" spans="1:12" hidden="1">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>12</v>
       </c>
@@ -18782,7 +18798,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="349" spans="1:12" hidden="1">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>12</v>
       </c>
@@ -18817,7 +18833,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="350" spans="1:12" hidden="1">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>12</v>
       </c>
@@ -18852,7 +18868,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="351" spans="1:12" hidden="1">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>12</v>
       </c>
@@ -18887,7 +18903,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="352" spans="1:12" hidden="1">
+    <row r="352" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>12</v>
       </c>
@@ -18925,7 +18941,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="353" spans="1:12" hidden="1">
+    <row r="353" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>12</v>
       </c>
@@ -18960,7 +18976,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="354" spans="1:12" hidden="1">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>12</v>
       </c>
@@ -18995,7 +19011,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="355" spans="1:12" hidden="1">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>12</v>
       </c>
@@ -19030,7 +19046,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="356" spans="1:12" hidden="1">
+    <row r="356" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>12</v>
       </c>
@@ -19065,7 +19081,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="357" spans="1:12" hidden="1">
+    <row r="357" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>12</v>
       </c>
@@ -19100,7 +19116,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="358" spans="1:12" hidden="1">
+    <row r="358" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>12</v>
       </c>
@@ -19138,7 +19154,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="359" spans="1:12">
+    <row r="359" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>12</v>
       </c>
@@ -19173,7 +19189,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="360" spans="1:12">
+    <row r="360" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>12</v>
       </c>
@@ -19208,7 +19224,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="361" spans="1:12" hidden="1">
+    <row r="361" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>12</v>
       </c>
@@ -19243,7 +19259,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="362" spans="1:12" hidden="1">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>12</v>
       </c>
@@ -19278,7 +19294,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="363" spans="1:12" hidden="1">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>12</v>
       </c>
@@ -19313,7 +19329,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="364" spans="1:12" hidden="1">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>12</v>
       </c>
@@ -19348,7 +19364,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="365" spans="1:12" hidden="1">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>12</v>
       </c>
@@ -19383,7 +19399,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="366" spans="1:12" hidden="1">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>12</v>
       </c>
@@ -19418,7 +19434,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="367" spans="1:12" hidden="1">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>12</v>
       </c>
@@ -19453,7 +19469,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="368" spans="1:12" hidden="1">
+    <row r="368" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>12</v>
       </c>
@@ -19488,7 +19504,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="369" spans="1:11" hidden="1">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>12</v>
       </c>
@@ -19523,7 +19539,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="370" spans="1:11" hidden="1">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>12</v>
       </c>
@@ -19558,7 +19574,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="371" spans="1:11" hidden="1">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>12</v>
       </c>
@@ -19593,7 +19609,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="372" spans="1:11" hidden="1">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>12</v>
       </c>
@@ -19628,7 +19644,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="373" spans="1:11" hidden="1">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>12</v>
       </c>
@@ -19663,7 +19679,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="374" spans="1:11" hidden="1">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>12</v>
       </c>
@@ -19698,7 +19714,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="375" spans="1:11" hidden="1">
+    <row r="375" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>12</v>
       </c>
@@ -19733,7 +19749,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="376" spans="1:11" hidden="1">
+    <row r="376" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>12</v>
       </c>
@@ -19768,7 +19784,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="377" spans="1:11" hidden="1">
+    <row r="377" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>12</v>
       </c>
@@ -19803,7 +19819,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="378" spans="1:11" hidden="1">
+    <row r="378" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>12</v>
       </c>
@@ -19838,7 +19854,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="379" spans="1:11" hidden="1">
+    <row r="379" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>12</v>
       </c>
@@ -19873,7 +19889,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="380" spans="1:11" hidden="1">
+    <row r="380" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>12</v>
       </c>
@@ -19908,7 +19924,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="381" spans="1:11" hidden="1">
+    <row r="381" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>12</v>
       </c>
@@ -19943,7 +19959,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="382" spans="1:11" hidden="1">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>12</v>
       </c>
@@ -19978,7 +19994,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="383" spans="1:11" hidden="1">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>12</v>
       </c>
@@ -20013,7 +20029,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="384" spans="1:11" hidden="1">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>12</v>
       </c>
@@ -20048,7 +20064,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="385" spans="1:11" hidden="1">
+    <row r="385" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>12</v>
       </c>
@@ -20083,7 +20099,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="386" spans="1:11" hidden="1">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>12</v>
       </c>
@@ -20118,7 +20134,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="387" spans="1:11" hidden="1">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>12</v>
       </c>
@@ -20153,7 +20169,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="388" spans="1:11" hidden="1">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>12</v>
       </c>
@@ -20188,7 +20204,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="389" spans="1:11" hidden="1">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>12</v>
       </c>
@@ -20223,7 +20239,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="390" spans="1:11" hidden="1">
+    <row r="390" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>12</v>
       </c>
@@ -20258,7 +20274,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="391" spans="1:11" hidden="1">
+    <row r="391" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>12</v>
       </c>
@@ -20293,7 +20309,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="392" spans="1:11" hidden="1">
+    <row r="392" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>12</v>
       </c>
@@ -20328,7 +20344,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="393" spans="1:11" hidden="1">
+    <row r="393" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>12</v>
       </c>
@@ -20363,7 +20379,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="394" spans="1:11" hidden="1">
+    <row r="394" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>12</v>
       </c>
@@ -20398,7 +20414,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="395" spans="1:11" hidden="1">
+    <row r="395" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>12</v>
       </c>
@@ -20433,7 +20449,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="396" spans="1:11" hidden="1">
+    <row r="396" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>12</v>
       </c>
@@ -20468,7 +20484,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="397" spans="1:11" hidden="1">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>12</v>
       </c>
@@ -20503,7 +20519,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="398" spans="1:11" hidden="1">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>12</v>
       </c>
@@ -20538,7 +20554,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="399" spans="1:11" hidden="1">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>12</v>
       </c>
@@ -20573,7 +20589,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="400" spans="1:11" hidden="1">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>12</v>
       </c>
@@ -20608,7 +20624,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="401" spans="1:11" hidden="1">
+    <row r="401" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>12</v>
       </c>
@@ -20643,7 +20659,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="402" spans="1:11" hidden="1">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>12</v>
       </c>
@@ -20678,7 +20694,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="403" spans="1:11" hidden="1">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>12</v>
       </c>
@@ -20713,7 +20729,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="404" spans="1:11" hidden="1">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>12</v>
       </c>
@@ -20748,7 +20764,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="405" spans="1:11" hidden="1">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>12</v>
       </c>
@@ -20783,7 +20799,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="406" spans="1:11" hidden="1">
+    <row r="406" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>12</v>
       </c>
@@ -20818,7 +20834,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="407" spans="1:11" hidden="1">
+    <row r="407" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>12</v>
       </c>
@@ -20853,7 +20869,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="408" spans="1:11" hidden="1">
+    <row r="408" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>12</v>
       </c>
@@ -20888,7 +20904,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="409" spans="1:11" hidden="1">
+    <row r="409" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>12</v>
       </c>
@@ -20923,7 +20939,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="410" spans="1:11" hidden="1">
+    <row r="410" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>12</v>
       </c>
@@ -20958,7 +20974,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="411" spans="1:11" hidden="1">
+    <row r="411" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>12</v>
       </c>
@@ -20993,7 +21009,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="412" spans="1:11" hidden="1">
+    <row r="412" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>12</v>
       </c>
@@ -21028,7 +21044,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="413" spans="1:11" hidden="1">
+    <row r="413" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>12</v>
       </c>
@@ -21063,7 +21079,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="414" spans="1:11" hidden="1">
+    <row r="414" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>12</v>
       </c>
@@ -21098,7 +21114,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="415" spans="1:11" hidden="1">
+    <row r="415" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>12</v>
       </c>
@@ -21133,7 +21149,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="416" spans="1:11" hidden="1">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>12</v>
       </c>
@@ -21168,7 +21184,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="417" spans="1:12" hidden="1">
+    <row r="417" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>12</v>
       </c>
@@ -21203,7 +21219,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="418" spans="1:12" hidden="1">
+    <row r="418" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>12</v>
       </c>
@@ -21238,7 +21254,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="419" spans="1:12" hidden="1">
+    <row r="419" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>12</v>
       </c>
@@ -21273,7 +21289,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="420" spans="1:12" hidden="1">
+    <row r="420" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>12</v>
       </c>
@@ -21308,7 +21324,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="421" spans="1:12" hidden="1">
+    <row r="421" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>12</v>
       </c>
@@ -21343,7 +21359,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="422" spans="1:12" hidden="1">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>12</v>
       </c>
@@ -21378,7 +21394,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="423" spans="1:12" hidden="1">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>12</v>
       </c>
@@ -21413,7 +21429,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="424" spans="1:12" hidden="1">
+    <row r="424" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>12</v>
       </c>
@@ -21451,7 +21467,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="425" spans="1:12" hidden="1">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>12</v>
       </c>
@@ -21486,7 +21502,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="426" spans="1:12" hidden="1">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>12</v>
       </c>
@@ -21521,7 +21537,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="427" spans="1:12" hidden="1">
+    <row r="427" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>12</v>
       </c>
@@ -21556,7 +21572,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="428" spans="1:12" hidden="1">
+    <row r="428" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>12</v>
       </c>
@@ -21591,7 +21607,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="429" spans="1:12" hidden="1">
+    <row r="429" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>12</v>
       </c>
@@ -21629,7 +21645,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="430" spans="1:12" hidden="1">
+    <row r="430" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>12</v>
       </c>
@@ -21664,7 +21680,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="431" spans="1:12" hidden="1">
+    <row r="431" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>12</v>
       </c>
@@ -21699,7 +21715,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="432" spans="1:12" hidden="1">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>12</v>
       </c>
@@ -21734,7 +21750,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="433" spans="1:11" hidden="1">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>12</v>
       </c>
@@ -21769,7 +21785,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="434" spans="1:11" hidden="1">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>12</v>
       </c>
@@ -21804,7 +21820,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="435" spans="1:11" hidden="1">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>12</v>
       </c>
@@ -21839,7 +21855,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="436" spans="1:11" hidden="1">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>12</v>
       </c>
@@ -21874,7 +21890,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="437" spans="1:11" hidden="1">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>12</v>
       </c>
@@ -21909,7 +21925,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="438" spans="1:11" hidden="1">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>12</v>
       </c>
@@ -21944,7 +21960,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="439" spans="1:11" hidden="1">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>12</v>
       </c>
@@ -21979,7 +21995,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="440" spans="1:11" hidden="1">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>12</v>
       </c>
@@ -22014,7 +22030,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="441" spans="1:11" hidden="1">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>12</v>
       </c>
@@ -22049,7 +22065,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="442" spans="1:11" hidden="1">
+    <row r="442" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>12</v>
       </c>
@@ -22084,7 +22100,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="443" spans="1:11" hidden="1">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>12</v>
       </c>
@@ -22119,7 +22135,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="444" spans="1:11" hidden="1">
+    <row r="444" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>12</v>
       </c>
@@ -22154,7 +22170,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="445" spans="1:11" hidden="1">
+    <row r="445" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>12</v>
       </c>
@@ -22189,7 +22205,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="446" spans="1:11" hidden="1">
+    <row r="446" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>12</v>
       </c>
@@ -22224,7 +22240,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="447" spans="1:11" hidden="1">
+    <row r="447" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>12</v>
       </c>
@@ -22259,7 +22275,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="448" spans="1:11" hidden="1">
+    <row r="448" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>12</v>
       </c>
@@ -22294,7 +22310,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="449" spans="1:11" hidden="1">
+    <row r="449" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>12</v>
       </c>
@@ -22329,7 +22345,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="450" spans="1:11" hidden="1">
+    <row r="450" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>12</v>
       </c>
@@ -22364,7 +22380,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="451" spans="1:11" hidden="1">
+    <row r="451" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>12</v>
       </c>
@@ -22399,7 +22415,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="452" spans="1:11" hidden="1">
+    <row r="452" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>12</v>
       </c>
@@ -22434,7 +22450,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="453" spans="1:11" hidden="1">
+    <row r="453" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>12</v>
       </c>
@@ -22469,7 +22485,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="454" spans="1:11" hidden="1">
+    <row r="454" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>12</v>
       </c>
@@ -22504,7 +22520,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="455" spans="1:11" hidden="1">
+    <row r="455" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>12</v>
       </c>
@@ -22539,7 +22555,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="456" spans="1:11" hidden="1">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>12</v>
       </c>
@@ -22574,7 +22590,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="457" spans="1:11" hidden="1">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>12</v>
       </c>
@@ -22609,7 +22625,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="458" spans="1:11" hidden="1">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>12</v>
       </c>
@@ -22644,7 +22660,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="459" spans="1:11" hidden="1">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>12</v>
       </c>
@@ -22679,7 +22695,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="460" spans="1:11" hidden="1">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>12</v>
       </c>
@@ -22714,7 +22730,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="461" spans="1:11" hidden="1">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>12</v>
       </c>
@@ -22749,7 +22765,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="462" spans="1:11" hidden="1">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>12</v>
       </c>
@@ -22784,7 +22800,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="463" spans="1:11" hidden="1">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>12</v>
       </c>
@@ -22819,7 +22835,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="464" spans="1:11" hidden="1">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>12</v>
       </c>
@@ -22854,7 +22870,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="465" spans="1:11" hidden="1">
+    <row r="465" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>12</v>
       </c>
@@ -22889,7 +22905,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="466" spans="1:11" hidden="1">
+    <row r="466" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>12</v>
       </c>
@@ -22924,7 +22940,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="467" spans="1:11" hidden="1">
+    <row r="467" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>12</v>
       </c>
@@ -22959,7 +22975,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="468" spans="1:11" hidden="1">
+    <row r="468" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>12</v>
       </c>
@@ -22994,7 +23010,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="469" spans="1:11" hidden="1">
+    <row r="469" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>12</v>
       </c>
@@ -23029,7 +23045,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="470" spans="1:11" hidden="1">
+    <row r="470" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>12</v>
       </c>
@@ -23064,7 +23080,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="471" spans="1:11" hidden="1">
+    <row r="471" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>12</v>
       </c>
@@ -23099,7 +23115,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="472" spans="1:11" hidden="1">
+    <row r="472" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>12</v>
       </c>
@@ -23134,7 +23150,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="473" spans="1:11" hidden="1">
+    <row r="473" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>12</v>
       </c>
@@ -23169,7 +23185,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="474" spans="1:11" hidden="1">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>12</v>
       </c>
@@ -23204,7 +23220,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="475" spans="1:11" hidden="1">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>12</v>
       </c>
@@ -23239,7 +23255,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="476" spans="1:11" hidden="1">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>12</v>
       </c>
@@ -23274,7 +23290,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="477" spans="1:11" hidden="1">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>12</v>
       </c>
@@ -23309,7 +23325,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="478" spans="1:11" hidden="1">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>12</v>
       </c>
@@ -23344,7 +23360,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="479" spans="1:11" hidden="1">
+    <row r="479" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>12</v>
       </c>
@@ -23379,7 +23395,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="480" spans="1:11" hidden="1">
+    <row r="480" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>12</v>
       </c>
@@ -23414,7 +23430,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="481" spans="1:12" hidden="1">
+    <row r="481" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>12</v>
       </c>
@@ -23449,7 +23465,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="482" spans="1:12" hidden="1">
+    <row r="482" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>12</v>
       </c>
@@ -23484,7 +23500,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="483" spans="1:12" hidden="1">
+    <row r="483" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>12</v>
       </c>
@@ -23519,7 +23535,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="484" spans="1:12" hidden="1">
+    <row r="484" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>12</v>
       </c>
@@ -23557,7 +23573,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="485" spans="1:12" hidden="1">
+    <row r="485" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>12</v>
       </c>
@@ -23592,7 +23608,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="486" spans="1:12" hidden="1">
+    <row r="486" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>12</v>
       </c>
@@ -23627,7 +23643,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="487" spans="1:12" hidden="1">
+    <row r="487" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>12</v>
       </c>
@@ -23662,7 +23678,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="488" spans="1:12" hidden="1">
+    <row r="488" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>12</v>
       </c>
@@ -23697,7 +23713,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="489" spans="1:12" hidden="1">
+    <row r="489" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>12</v>
       </c>
@@ -23732,7 +23748,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="490" spans="1:12" hidden="1">
+    <row r="490" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>12</v>
       </c>
@@ -23767,7 +23783,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="491" spans="1:12" hidden="1">
+    <row r="491" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>12</v>
       </c>
@@ -23802,7 +23818,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="492" spans="1:12" hidden="1">
+    <row r="492" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
         <v>12</v>
       </c>
@@ -23837,7 +23853,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="493" spans="1:12" hidden="1">
+    <row r="493" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>12</v>
       </c>
@@ -23872,7 +23888,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="494" spans="1:12" hidden="1">
+    <row r="494" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>12</v>
       </c>
@@ -23907,7 +23923,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="495" spans="1:12" hidden="1">
+    <row r="495" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>12</v>
       </c>
@@ -23942,7 +23958,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="496" spans="1:12" hidden="1">
+    <row r="496" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
         <v>12</v>
       </c>
@@ -23977,7 +23993,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="497" spans="1:12" hidden="1">
+    <row r="497" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
         <v>12</v>
       </c>
@@ -24012,7 +24028,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="498" spans="1:12" hidden="1">
+    <row r="498" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
         <v>12</v>
       </c>
@@ -24047,7 +24063,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="499" spans="1:12" hidden="1">
+    <row r="499" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
         <v>12</v>
       </c>
@@ -24082,7 +24098,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="500" spans="1:12" hidden="1">
+    <row r="500" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>12</v>
       </c>
@@ -24117,7 +24133,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="501" spans="1:12" hidden="1">
+    <row r="501" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>12</v>
       </c>
@@ -24152,7 +24168,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="502" spans="1:12" hidden="1">
+    <row r="502" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>12</v>
       </c>
@@ -24187,7 +24203,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="503" spans="1:12" hidden="1">
+    <row r="503" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>12</v>
       </c>
@@ -24222,7 +24238,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="504" spans="1:12" hidden="1">
+    <row r="504" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
         <v>12</v>
       </c>
@@ -24257,7 +24273,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="505" spans="1:12" hidden="1">
+    <row r="505" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>12</v>
       </c>
@@ -24292,7 +24308,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="506" spans="1:12" hidden="1">
+    <row r="506" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
         <v>12</v>
       </c>
@@ -24330,7 +24346,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="507" spans="1:12" hidden="1">
+    <row r="507" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
         <v>12</v>
       </c>
@@ -24365,7 +24381,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="508" spans="1:12" hidden="1">
+    <row r="508" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
         <v>12</v>
       </c>
@@ -24400,7 +24416,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="509" spans="1:12" hidden="1">
+    <row r="509" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
         <v>12</v>
       </c>
@@ -24435,7 +24451,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="510" spans="1:12" hidden="1">
+    <row r="510" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
         <v>12</v>
       </c>
@@ -24470,7 +24486,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="511" spans="1:12" hidden="1">
+    <row r="511" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
         <v>12</v>
       </c>
@@ -24505,7 +24521,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="512" spans="1:12" hidden="1">
+    <row r="512" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
         <v>12</v>
       </c>
@@ -24540,7 +24556,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="513" spans="1:12" hidden="1">
+    <row r="513" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
         <v>12</v>
       </c>
@@ -24575,7 +24591,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="514" spans="1:12" hidden="1">
+    <row r="514" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
         <v>12</v>
       </c>
@@ -24610,7 +24626,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="515" spans="1:12" hidden="1">
+    <row r="515" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
         <v>12</v>
       </c>
@@ -24645,7 +24661,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="516" spans="1:12" hidden="1">
+    <row r="516" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
         <v>12</v>
       </c>
@@ -24680,7 +24696,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="517" spans="1:12" hidden="1">
+    <row r="517" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
         <v>12</v>
       </c>
@@ -24715,7 +24731,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="518" spans="1:12" hidden="1">
+    <row r="518" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
         <v>12</v>
       </c>
@@ -24750,7 +24766,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="519" spans="1:12" hidden="1">
+    <row r="519" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
         <v>12</v>
       </c>
@@ -24788,7 +24804,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="520" spans="1:12" hidden="1">
+    <row r="520" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
         <v>12</v>
       </c>
@@ -24823,7 +24839,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="521" spans="1:12">
+    <row r="521" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
         <v>12</v>
       </c>
@@ -24858,7 +24874,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="522" spans="1:12" hidden="1">
+    <row r="522" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
         <v>12</v>
       </c>
@@ -24893,7 +24909,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="523" spans="1:12" hidden="1">
+    <row r="523" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
         <v>12</v>
       </c>
@@ -24928,7 +24944,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="524" spans="1:12" hidden="1">
+    <row r="524" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
         <v>12</v>
       </c>
@@ -24963,7 +24979,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="525" spans="1:12" hidden="1">
+    <row r="525" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
         <v>12</v>
       </c>
@@ -24998,7 +25014,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="526" spans="1:12" hidden="1">
+    <row r="526" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
         <v>12</v>
       </c>
@@ -25033,7 +25049,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="527" spans="1:12" hidden="1">
+    <row r="527" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
         <v>12</v>
       </c>
@@ -25068,7 +25084,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="528" spans="1:12" hidden="1">
+    <row r="528" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
         <v>12</v>
       </c>
@@ -25103,7 +25119,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="529" spans="1:11" hidden="1">
+    <row r="529" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
         <v>12</v>
       </c>
@@ -25138,7 +25154,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="530" spans="1:11" hidden="1">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
         <v>12</v>
       </c>
@@ -25173,7 +25189,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="531" spans="1:11" hidden="1">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
         <v>12</v>
       </c>
@@ -25208,7 +25224,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="532" spans="1:11" hidden="1">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
         <v>12</v>
       </c>
@@ -25243,7 +25259,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="533" spans="1:11" hidden="1">
+    <row r="533" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
         <v>12</v>
       </c>
@@ -25278,7 +25294,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="534" spans="1:11" hidden="1">
+    <row r="534" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
         <v>12</v>
       </c>
@@ -25313,7 +25329,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="535" spans="1:11" hidden="1">
+    <row r="535" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
         <v>12</v>
       </c>
@@ -25348,7 +25364,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="536" spans="1:11" hidden="1">
+    <row r="536" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
         <v>12</v>
       </c>
@@ -25383,7 +25399,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="537" spans="1:11" hidden="1">
+    <row r="537" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
         <v>12</v>
       </c>
@@ -25418,7 +25434,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="538" spans="1:11" hidden="1">
+    <row r="538" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
         <v>12</v>
       </c>
@@ -25453,7 +25469,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="539" spans="1:11" hidden="1">
+    <row r="539" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
         <v>12</v>
       </c>
@@ -25488,7 +25504,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="540" spans="1:11" hidden="1">
+    <row r="540" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
         <v>12</v>
       </c>
@@ -25523,7 +25539,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="541" spans="1:11" hidden="1">
+    <row r="541" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
         <v>12</v>
       </c>
@@ -25558,7 +25574,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="542" spans="1:11" hidden="1">
+    <row r="542" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
         <v>12</v>
       </c>
@@ -25593,7 +25609,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="543" spans="1:11" hidden="1">
+    <row r="543" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
         <v>12</v>
       </c>
@@ -25628,7 +25644,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="544" spans="1:11" hidden="1">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
         <v>12</v>
       </c>
@@ -25663,7 +25679,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="545" spans="1:11" hidden="1">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
         <v>12</v>
       </c>
@@ -25698,7 +25714,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="546" spans="1:11" hidden="1">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
         <v>12</v>
       </c>
@@ -25733,7 +25749,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="547" spans="1:11" hidden="1">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
         <v>12</v>
       </c>
@@ -25768,7 +25784,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="548" spans="1:11" hidden="1">
+    <row r="548" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
         <v>12</v>
       </c>
@@ -25803,7 +25819,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="549" spans="1:11" hidden="1">
+    <row r="549" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
         <v>12</v>
       </c>
@@ -25838,7 +25854,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="550" spans="1:11" hidden="1">
+    <row r="550" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
         <v>12</v>
       </c>
@@ -25873,7 +25889,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="551" spans="1:11" hidden="1">
+    <row r="551" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
         <v>12</v>
       </c>
@@ -25908,7 +25924,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="552" spans="1:11" hidden="1">
+    <row r="552" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
         <v>12</v>
       </c>
@@ -25943,7 +25959,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="553" spans="1:11" hidden="1">
+    <row r="553" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
         <v>12</v>
       </c>
@@ -25978,7 +25994,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="554" spans="1:11" hidden="1">
+    <row r="554" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
         <v>12</v>
       </c>
@@ -26013,7 +26029,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="555" spans="1:11" hidden="1">
+    <row r="555" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
         <v>12</v>
       </c>
@@ -26048,7 +26064,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="556" spans="1:11" hidden="1">
+    <row r="556" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
         <v>12</v>
       </c>
@@ -26083,7 +26099,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="557" spans="1:11" hidden="1">
+    <row r="557" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
         <v>12</v>
       </c>
@@ -26118,7 +26134,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="558" spans="1:11" hidden="1">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
         <v>12</v>
       </c>
@@ -26153,7 +26169,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="559" spans="1:11" hidden="1">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
         <v>12</v>
       </c>
@@ -26188,7 +26204,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="560" spans="1:11" hidden="1">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
         <v>12</v>
       </c>
@@ -26223,7 +26239,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="561" spans="1:11" hidden="1">
+    <row r="561" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
         <v>12</v>
       </c>
@@ -26258,7 +26274,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="562" spans="1:11" hidden="1">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A562" t="s">
         <v>12</v>
       </c>
@@ -26293,7 +26309,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="563" spans="1:11" hidden="1">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A563" t="s">
         <v>12</v>
       </c>
@@ -26328,7 +26344,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="564" spans="1:11" hidden="1">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
         <v>12</v>
       </c>
@@ -26363,7 +26379,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="565" spans="1:11" hidden="1">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
         <v>12</v>
       </c>
@@ -26398,7 +26414,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="566" spans="1:11" hidden="1">
+    <row r="566" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
         <v>12</v>
       </c>
@@ -26433,7 +26449,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="567" spans="1:11" hidden="1">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
         <v>12</v>
       </c>
@@ -26468,7 +26484,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="568" spans="1:11">
+    <row r="568" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A568" t="s">
         <v>12</v>
       </c>
@@ -26503,7 +26519,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="569" spans="1:11" hidden="1">
+    <row r="569" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A569" t="s">
         <v>12</v>
       </c>
@@ -26538,7 +26554,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="570" spans="1:11" hidden="1">
+    <row r="570" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A570" t="s">
         <v>12</v>
       </c>
@@ -26573,7 +26589,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="571" spans="1:11" hidden="1">
+    <row r="571" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A571" t="s">
         <v>12</v>
       </c>
@@ -26608,7 +26624,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="572" spans="1:11" hidden="1">
+    <row r="572" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A572" t="s">
         <v>12</v>
       </c>
@@ -26643,7 +26659,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="573" spans="1:11" hidden="1">
+    <row r="573" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A573" t="s">
         <v>12</v>
       </c>
@@ -26678,7 +26694,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="574" spans="1:11" hidden="1">
+    <row r="574" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A574" t="s">
         <v>12</v>
       </c>
@@ -26713,7 +26729,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="575" spans="1:11" hidden="1">
+    <row r="575" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A575" t="s">
         <v>12</v>
       </c>
@@ -26748,7 +26764,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="576" spans="1:11" hidden="1">
+    <row r="576" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
         <v>12</v>
       </c>
@@ -26783,7 +26799,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="577" spans="1:12" hidden="1">
+    <row r="577" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A577" t="s">
         <v>12</v>
       </c>
@@ -26818,7 +26834,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="578" spans="1:12" hidden="1">
+    <row r="578" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A578" t="s">
         <v>12</v>
       </c>
@@ -26856,7 +26872,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="579" spans="1:12" hidden="1">
+    <row r="579" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A579" t="s">
         <v>12</v>
       </c>
@@ -26891,7 +26907,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="580" spans="1:12" hidden="1">
+    <row r="580" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A580" t="s">
         <v>12</v>
       </c>
@@ -26926,7 +26942,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="581" spans="1:12" hidden="1">
+    <row r="581" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A581" t="s">
         <v>12</v>
       </c>
@@ -26961,7 +26977,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="582" spans="1:12" hidden="1">
+    <row r="582" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A582" t="s">
         <v>12</v>
       </c>
@@ -26996,7 +27012,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="583" spans="1:12" hidden="1">
+    <row r="583" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A583" t="s">
         <v>12</v>
       </c>
@@ -27031,7 +27047,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="584" spans="1:12" hidden="1">
+    <row r="584" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A584" t="s">
         <v>12</v>
       </c>
@@ -27066,7 +27082,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="585" spans="1:12" hidden="1">
+    <row r="585" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A585" t="s">
         <v>12</v>
       </c>
@@ -27101,7 +27117,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="586" spans="1:12" hidden="1">
+    <row r="586" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A586" t="s">
         <v>12</v>
       </c>
@@ -27136,7 +27152,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="587" spans="1:12" hidden="1">
+    <row r="587" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A587" t="s">
         <v>12</v>
       </c>
@@ -27171,7 +27187,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="588" spans="1:12" hidden="1">
+    <row r="588" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A588" t="s">
         <v>12</v>
       </c>
@@ -27206,7 +27222,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="589" spans="1:12" hidden="1">
+    <row r="589" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A589" t="s">
         <v>12</v>
       </c>
@@ -27241,7 +27257,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="590" spans="1:12" hidden="1">
+    <row r="590" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A590" t="s">
         <v>12</v>
       </c>
@@ -27276,7 +27292,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="591" spans="1:12" hidden="1">
+    <row r="591" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A591" t="s">
         <v>12</v>
       </c>
@@ -27311,7 +27327,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="592" spans="1:12" hidden="1">
+    <row r="592" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A592" t="s">
         <v>12</v>
       </c>
@@ -27346,7 +27362,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="593" spans="1:12" hidden="1">
+    <row r="593" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A593" t="s">
         <v>12</v>
       </c>
@@ -27381,7 +27397,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="594" spans="1:12" hidden="1">
+    <row r="594" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A594" t="s">
         <v>12</v>
       </c>
@@ -27419,7 +27435,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="595" spans="1:12" hidden="1">
+    <row r="595" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A595" t="s">
         <v>12</v>
       </c>
@@ -27454,7 +27470,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="596" spans="1:12" hidden="1">
+    <row r="596" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A596" t="s">
         <v>12</v>
       </c>
@@ -27489,7 +27505,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="597" spans="1:12" hidden="1">
+    <row r="597" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A597" t="s">
         <v>12</v>
       </c>
@@ -27524,7 +27540,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="598" spans="1:12" hidden="1">
+    <row r="598" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A598" t="s">
         <v>12</v>
       </c>
@@ -27559,7 +27575,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="599" spans="1:12" hidden="1">
+    <row r="599" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A599" t="s">
         <v>12</v>
       </c>
@@ -27594,7 +27610,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="600" spans="1:12" hidden="1">
+    <row r="600" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A600" t="s">
         <v>12</v>
       </c>
@@ -27629,7 +27645,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="601" spans="1:12" hidden="1">
+    <row r="601" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A601" t="s">
         <v>12</v>
       </c>
@@ -27664,7 +27680,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="602" spans="1:12" hidden="1">
+    <row r="602" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A602" t="s">
         <v>12</v>
       </c>
@@ -27699,7 +27715,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="603" spans="1:12" hidden="1">
+    <row r="603" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A603" t="s">
         <v>12</v>
       </c>
@@ -27734,7 +27750,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="604" spans="1:12" hidden="1">
+    <row r="604" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A604" t="s">
         <v>12</v>
       </c>
@@ -27769,7 +27785,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="605" spans="1:12" hidden="1">
+    <row r="605" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A605" t="s">
         <v>12</v>
       </c>
@@ -27804,7 +27820,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="606" spans="1:12" hidden="1">
+    <row r="606" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A606" t="s">
         <v>12</v>
       </c>
@@ -27839,7 +27855,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="607" spans="1:12" hidden="1">
+    <row r="607" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A607" t="s">
         <v>12</v>
       </c>
@@ -27874,7 +27890,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="608" spans="1:12" hidden="1">
+    <row r="608" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A608" t="s">
         <v>12</v>
       </c>
@@ -27909,7 +27925,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="609" spans="1:11" hidden="1">
+    <row r="609" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A609" t="s">
         <v>12</v>
       </c>
@@ -27944,7 +27960,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="610" spans="1:11" hidden="1">
+    <row r="610" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A610" t="s">
         <v>12</v>
       </c>
@@ -27979,7 +27995,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="611" spans="1:11" hidden="1">
+    <row r="611" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A611" t="s">
         <v>12</v>
       </c>
@@ -28014,7 +28030,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="612" spans="1:11" hidden="1">
+    <row r="612" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A612" t="s">
         <v>12</v>
       </c>
@@ -28049,7 +28065,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="613" spans="1:11" hidden="1">
+    <row r="613" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A613" t="s">
         <v>12</v>
       </c>
@@ -28084,7 +28100,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="614" spans="1:11" hidden="1">
+    <row r="614" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A614" t="s">
         <v>12</v>
       </c>
@@ -28119,7 +28135,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="615" spans="1:11" hidden="1">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A615" t="s">
         <v>12</v>
       </c>
@@ -28154,7 +28170,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="616" spans="1:11" hidden="1">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A616" t="s">
         <v>12</v>
       </c>
@@ -28189,7 +28205,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="617" spans="1:11" hidden="1">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A617" t="s">
         <v>12</v>
       </c>
@@ -28224,7 +28240,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="618" spans="1:11" hidden="1">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A618" t="s">
         <v>12</v>
       </c>
@@ -28259,7 +28275,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="619" spans="1:11" hidden="1">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A619" t="s">
         <v>12</v>
       </c>
@@ -28294,7 +28310,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="620" spans="1:11" hidden="1">
+    <row r="620" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A620" t="s">
         <v>12</v>
       </c>
@@ -28329,7 +28345,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="621" spans="1:11" hidden="1">
+    <row r="621" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A621" t="s">
         <v>12</v>
       </c>
@@ -28364,7 +28380,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="622" spans="1:11" hidden="1">
+    <row r="622" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A622" t="s">
         <v>12</v>
       </c>
@@ -28399,7 +28415,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="623" spans="1:11" hidden="1">
+    <row r="623" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A623" t="s">
         <v>12</v>
       </c>
@@ -28434,7 +28450,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="624" spans="1:11" hidden="1">
+    <row r="624" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A624" t="s">
         <v>12</v>
       </c>
@@ -28469,7 +28485,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="625" spans="1:12" hidden="1">
+    <row r="625" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A625" t="s">
         <v>12</v>
       </c>
@@ -28507,7 +28523,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="626" spans="1:12" hidden="1">
+    <row r="626" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A626" t="s">
         <v>12</v>
       </c>
@@ -28545,7 +28561,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="627" spans="1:12" hidden="1">
+    <row r="627" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A627" t="s">
         <v>12</v>
       </c>
@@ -28583,7 +28599,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="628" spans="1:12" hidden="1">
+    <row r="628" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A628" t="s">
         <v>12</v>
       </c>
@@ -28618,7 +28634,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="629" spans="1:12" hidden="1">
+    <row r="629" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A629" t="s">
         <v>12</v>
       </c>
@@ -28653,7 +28669,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="630" spans="1:12" hidden="1">
+    <row r="630" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A630" t="s">
         <v>12</v>
       </c>
@@ -28688,7 +28704,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="631" spans="1:12" hidden="1">
+    <row r="631" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A631" t="s">
         <v>12</v>
       </c>
@@ -28723,7 +28739,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="632" spans="1:12" hidden="1">
+    <row r="632" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A632" t="s">
         <v>12</v>
       </c>
@@ -28758,7 +28774,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="633" spans="1:12" hidden="1">
+    <row r="633" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A633" t="s">
         <v>12</v>
       </c>
@@ -28796,7 +28812,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="634" spans="1:12" hidden="1">
+    <row r="634" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A634" t="s">
         <v>12</v>
       </c>
@@ -28831,7 +28847,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="635" spans="1:12" hidden="1">
+    <row r="635" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A635" t="s">
         <v>12</v>
       </c>
@@ -28866,7 +28882,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="636" spans="1:12" hidden="1">
+    <row r="636" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A636" t="s">
         <v>12</v>
       </c>
@@ -28901,7 +28917,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="637" spans="1:12" hidden="1">
+    <row r="637" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A637" t="s">
         <v>12</v>
       </c>
@@ -28936,7 +28952,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="638" spans="1:12" hidden="1">
+    <row r="638" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A638" t="s">
         <v>12</v>
       </c>
@@ -28971,7 +28987,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="639" spans="1:12" hidden="1">
+    <row r="639" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A639" t="s">
         <v>12</v>
       </c>
@@ -29006,7 +29022,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="640" spans="1:12" hidden="1">
+    <row r="640" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A640" t="s">
         <v>12</v>
       </c>
@@ -29041,7 +29057,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="641" spans="1:12" hidden="1">
+    <row r="641" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A641" t="s">
         <v>12</v>
       </c>
@@ -29079,7 +29095,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="642" spans="1:12" hidden="1">
+    <row r="642" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A642" t="s">
         <v>12</v>
       </c>
@@ -29114,7 +29130,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="643" spans="1:12" hidden="1">
+    <row r="643" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A643" t="s">
         <v>12</v>
       </c>
@@ -29149,7 +29165,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="644" spans="1:12" hidden="1">
+    <row r="644" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A644" t="s">
         <v>12</v>
       </c>
@@ -29184,7 +29200,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="645" spans="1:12" hidden="1">
+    <row r="645" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A645" t="s">
         <v>12</v>
       </c>
@@ -29219,7 +29235,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="646" spans="1:12" hidden="1">
+    <row r="646" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A646" t="s">
         <v>12</v>
       </c>
@@ -29254,7 +29270,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="647" spans="1:12" hidden="1">
+    <row r="647" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A647" t="s">
         <v>12</v>
       </c>
@@ -29289,7 +29305,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="648" spans="1:12" hidden="1">
+    <row r="648" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A648" t="s">
         <v>12</v>
       </c>
@@ -29324,7 +29340,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="649" spans="1:12" hidden="1">
+    <row r="649" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A649" t="s">
         <v>12</v>
       </c>
@@ -29359,7 +29375,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="650" spans="1:12" hidden="1">
+    <row r="650" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A650" t="s">
         <v>12</v>
       </c>
@@ -29397,7 +29413,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="651" spans="1:12" hidden="1">
+    <row r="651" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A651" t="s">
         <v>12</v>
       </c>
@@ -29432,7 +29448,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="652" spans="1:12" hidden="1">
+    <row r="652" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A652" t="s">
         <v>12</v>
       </c>
@@ -29470,7 +29486,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="653" spans="1:12" hidden="1">
+    <row r="653" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A653" t="s">
         <v>12</v>
       </c>
@@ -29505,7 +29521,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="654" spans="1:12" hidden="1">
+    <row r="654" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A654" t="s">
         <v>12</v>
       </c>
@@ -29540,7 +29556,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="655" spans="1:12" hidden="1">
+    <row r="655" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A655" t="s">
         <v>12</v>
       </c>
@@ -29575,7 +29591,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="656" spans="1:12" hidden="1">
+    <row r="656" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A656" t="s">
         <v>12</v>
       </c>
@@ -29610,7 +29626,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="657" spans="1:12" hidden="1">
+    <row r="657" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A657" t="s">
         <v>12</v>
       </c>
@@ -29645,7 +29661,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="658" spans="1:12" hidden="1">
+    <row r="658" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A658" t="s">
         <v>12</v>
       </c>
@@ -29680,7 +29696,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="659" spans="1:12" hidden="1">
+    <row r="659" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A659" t="s">
         <v>12</v>
       </c>
@@ -29715,7 +29731,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="660" spans="1:12" hidden="1">
+    <row r="660" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A660" t="s">
         <v>12</v>
       </c>
@@ -29750,7 +29766,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="661" spans="1:12" hidden="1">
+    <row r="661" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A661" t="s">
         <v>12</v>
       </c>
@@ -29785,7 +29801,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="662" spans="1:12" hidden="1">
+    <row r="662" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A662" t="s">
         <v>12</v>
       </c>
@@ -29820,7 +29836,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="663" spans="1:12" hidden="1">
+    <row r="663" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A663" t="s">
         <v>12</v>
       </c>
@@ -29855,7 +29871,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="664" spans="1:12" hidden="1">
+    <row r="664" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A664" t="s">
         <v>12</v>
       </c>
@@ -29890,7 +29906,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="665" spans="1:12" hidden="1">
+    <row r="665" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A665" t="s">
         <v>12</v>
       </c>
@@ -29925,7 +29941,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="666" spans="1:12" hidden="1">
+    <row r="666" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A666" t="s">
         <v>12</v>
       </c>
@@ -29960,7 +29976,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="667" spans="1:12" hidden="1">
+    <row r="667" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A667" t="s">
         <v>12</v>
       </c>
@@ -29995,7 +30011,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="668" spans="1:12" hidden="1">
+    <row r="668" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A668" t="s">
         <v>12</v>
       </c>
@@ -30030,7 +30046,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="669" spans="1:12" hidden="1">
+    <row r="669" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A669" t="s">
         <v>12</v>
       </c>
@@ -30068,7 +30084,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="670" spans="1:12" hidden="1">
+    <row r="670" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A670" t="s">
         <v>12</v>
       </c>
@@ -30103,7 +30119,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="671" spans="1:12" hidden="1">
+    <row r="671" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A671" t="s">
         <v>12</v>
       </c>
@@ -30138,7 +30154,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="672" spans="1:12" hidden="1">
+    <row r="672" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A672" t="s">
         <v>12</v>
       </c>
@@ -30173,7 +30189,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="673" spans="1:12" hidden="1">
+    <row r="673" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A673" t="s">
         <v>12</v>
       </c>
@@ -30208,7 +30224,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="674" spans="1:12" hidden="1">
+    <row r="674" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A674" t="s">
         <v>12</v>
       </c>
@@ -30243,7 +30259,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="675" spans="1:12" hidden="1">
+    <row r="675" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A675" t="s">
         <v>12</v>
       </c>
@@ -30278,7 +30294,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="676" spans="1:12" hidden="1">
+    <row r="676" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A676" t="s">
         <v>12</v>
       </c>
@@ -30316,7 +30332,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="677" spans="1:12" hidden="1">
+    <row r="677" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A677" t="s">
         <v>12</v>
       </c>
@@ -30351,7 +30367,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="678" spans="1:12" hidden="1">
+    <row r="678" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A678" t="s">
         <v>12</v>
       </c>
@@ -30386,7 +30402,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="679" spans="1:12" hidden="1">
+    <row r="679" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A679" t="s">
         <v>12</v>
       </c>
@@ -30421,7 +30437,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="680" spans="1:12" hidden="1">
+    <row r="680" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A680" t="s">
         <v>12</v>
       </c>
@@ -30459,7 +30475,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="681" spans="1:12" hidden="1">
+    <row r="681" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A681" t="s">
         <v>12</v>
       </c>
@@ -30494,7 +30510,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="682" spans="1:12" hidden="1">
+    <row r="682" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A682" t="s">
         <v>12</v>
       </c>
@@ -30529,7 +30545,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="683" spans="1:12" hidden="1">
+    <row r="683" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A683" t="s">
         <v>12</v>
       </c>
@@ -30564,7 +30580,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="684" spans="1:12" hidden="1">
+    <row r="684" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A684" t="s">
         <v>12</v>
       </c>
@@ -30599,7 +30615,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="685" spans="1:12" hidden="1">
+    <row r="685" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A685" t="s">
         <v>12</v>
       </c>
@@ -30634,7 +30650,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="686" spans="1:12" hidden="1">
+    <row r="686" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A686" t="s">
         <v>12</v>
       </c>
@@ -30669,7 +30685,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="687" spans="1:12" hidden="1">
+    <row r="687" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A687" t="s">
         <v>12</v>
       </c>
@@ -30704,7 +30720,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="688" spans="1:12" hidden="1">
+    <row r="688" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A688" t="s">
         <v>12</v>
       </c>
@@ -30739,7 +30755,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="689" spans="1:11" hidden="1">
+    <row r="689" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A689" t="s">
         <v>12</v>
       </c>
@@ -30774,7 +30790,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="690" spans="1:11" hidden="1">
+    <row r="690" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A690" t="s">
         <v>12</v>
       </c>
@@ -30809,7 +30825,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="691" spans="1:11" hidden="1">
+    <row r="691" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A691" t="s">
         <v>12</v>
       </c>
@@ -30844,7 +30860,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="692" spans="1:11" hidden="1">
+    <row r="692" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A692" t="s">
         <v>12</v>
       </c>
@@ -30879,7 +30895,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="693" spans="1:11" hidden="1">
+    <row r="693" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A693" t="s">
         <v>12</v>
       </c>
@@ -30914,7 +30930,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="694" spans="1:11" hidden="1">
+    <row r="694" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A694" t="s">
         <v>12</v>
       </c>
@@ -30949,7 +30965,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="695" spans="1:11" hidden="1">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A695" t="s">
         <v>12</v>
       </c>
@@ -30985,11 +31001,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L695">
-    <filterColumn colId="3"/>
+  <autoFilter ref="A1:L695" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="4">
       <filters>
-        <filter val="LDO_ low dropout linear regulator"/>
+        <filter val="Resistor_chip resistor"/>
       </filters>
     </filterColumn>
   </autoFilter>
